--- a/pearson_tables/tp_netherlands_cumul-1-7.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-7.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6687988964460915</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.730434451059868</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.569602126155571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6445892097116065</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.817746171915412</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6644038564499455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.625601751536049</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8030591701631579</v>
+        <v>0.7840954128749528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7107392370924278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7181370963639766</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.734616068481553</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6503179889837869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5804757855386969</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7483728460607132</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6763702899132855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5858424467246993</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6919644054192785</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4682630260748517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5347447387745463</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6673610304319221</v>
+        <v>-0.6615990660246527</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6644295013250177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7456136610726618</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6363537223705683</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.675369426341127</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
